--- a/tools/config.xlsx
+++ b/tools/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="12660"/>
+    <workbookView windowWidth="24940" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="loading-language" sheetId="1" r:id="rId1"/>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>所有资源加载完成，进入主场景</t>
     </r>
     <r>
@@ -66,6 +72,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF067D17"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>正在检查资源，并准备热梗</t>
     </r>
     <r>
@@ -101,7 +113,7 @@
     <t>ui_loading_loading_dir</t>
   </si>
   <si>
-    <t>Loading directory: ${dir}......</t>
+    <t>Loading directory: %{dir}......</t>
   </si>
   <si>
     <r>
@@ -109,17 +121,37 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.8"/>
+        <sz val="10"/>
         <color rgb="FF080808"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%{dir}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF067D17"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>${</t>
+      <t>......</t>
+    </r>
+  </si>
+  <si>
+    <t>ui_loading_loading_done</t>
+  </si>
+  <si>
+    <t>%{dir} loading complete</t>
+  </si>
+  <si>
+    <r>
+      <t>%{</t>
     </r>
     <r>
       <rPr>
-        <sz val="9.8"/>
+        <sz val="10"/>
         <color rgb="FF2A8C7C"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -129,48 +161,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF080808"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF067D17"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>......</t>
-    </r>
-  </si>
-  <si>
-    <t>ui_loading_loading_done</t>
-  </si>
-  <si>
-    <t>${dir} loading complete</t>
-  </si>
-  <si>
-    <r>
-      <t>${</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF2A8C7C"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>dir</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
+        <sz val="10"/>
         <color rgb="FF080808"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -180,7 +171,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9.8"/>
+        <sz val="10"/>
         <color rgb="FF067D17"/>
         <rFont val="宋体"/>
         <charset val="134"/>
@@ -200,7 +191,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,7 +212,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9.8"/>
+      <sz val="10"/>
+      <color rgb="FF067D17"/>
+      <name val="宋体-简"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF080808"/>
       <name val="Courier New"/>
       <charset val="134"/>
@@ -371,22 +368,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF2A8C7C"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF080808"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF067D17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9.8"/>
       <color rgb="FF067D17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.8"/>
-      <color rgb="FF2A8C7C"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9.8"/>
-      <color rgb="FF080808"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -712,137 +716,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -853,6 +857,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1383,7 +1390,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1455,7 +1462,7 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1466,7 +1473,7 @@
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
     </row>

--- a/tools/config.xlsx
+++ b/tools/config.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24940" windowHeight="12660"/>
+    <workbookView windowWidth="24940" windowHeight="12660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="loading-language" sheetId="1" r:id="rId1"/>
+    <sheet name="game1-language" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -179,6 +180,15 @@
       </rPr>
       <t>加载完成</t>
     </r>
+  </si>
+  <si>
+    <t>ui_login_guest</t>
+  </si>
+  <si>
+    <t>LOGIN(GUEST)</t>
+  </si>
+  <si>
+    <t>登录（设备ID）</t>
   </si>
 </sst>
 </file>
@@ -1389,8 +1399,8 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1481,4 +1491,48 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="49.5192307692308" customWidth="1"/>
+    <col min="2" max="2" width="53.8461538461538" customWidth="1"/>
+    <col min="3" max="3" width="35.4038461538462" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/tools/config.xlsx
+++ b/tools/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24940" windowHeight="12660" activeTab="1"/>
+    <workbookView windowWidth="22280" windowHeight="12740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="loading-language" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -189,6 +189,69 @@
   </si>
   <si>
     <t>登录（设备ID）</t>
+  </si>
+  <si>
+    <t>ui_login_google</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>google登录</t>
+  </si>
+  <si>
+    <t>ui_play</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>马上开始</t>
+  </si>
+  <si>
+    <t>ui_daily_challenge</t>
+  </si>
+  <si>
+    <t>Daily Challenge</t>
+  </si>
+  <si>
+    <t>日常挑战</t>
+  </si>
+  <si>
+    <t>ui_garden</t>
+  </si>
+  <si>
+    <t>Garden</t>
+  </si>
+  <si>
+    <t>花园</t>
+  </si>
+  <si>
+    <t>ui_star_chest</t>
+  </si>
+  <si>
+    <t>Star Chest</t>
+  </si>
+  <si>
+    <t>星级宝箱</t>
+  </si>
+  <si>
+    <t>ui_new_deal</t>
+  </si>
+  <si>
+    <t>New Deal</t>
+  </si>
+  <si>
+    <t>新的模式</t>
+  </si>
+  <si>
+    <t>ui_level</t>
+  </si>
+  <si>
+    <t>LV:%{level}</t>
+  </si>
+  <si>
+    <t>等级:%{level}</t>
   </si>
 </sst>
 </file>
@@ -1496,13 +1559,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="49.5192307692308" customWidth="1"/>
     <col min="2" max="2" width="53.8461538461538" customWidth="1"/>
@@ -1531,6 +1594,83 @@
         <v>23</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/tools/config.xlsx
+++ b/tools/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22280" windowHeight="12740" activeTab="1"/>
+    <workbookView windowWidth="22280" windowHeight="12660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="loading-language" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -252,6 +252,42 @@
   </si>
   <si>
     <t>等级:%{level}</t>
+  </si>
+  <si>
+    <t>ui_hints</t>
+  </si>
+  <si>
+    <t>Hints</t>
+  </si>
+  <si>
+    <t>寻找</t>
+  </si>
+  <si>
+    <t>ui_undo</t>
+  </si>
+  <si>
+    <t>Undo</t>
+  </si>
+  <si>
+    <t>重做</t>
+  </si>
+  <si>
+    <t>ui_magic</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>魔法</t>
+  </si>
+  <si>
+    <t>ui_pause</t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>暂停</t>
   </si>
 </sst>
 </file>
@@ -1559,10 +1595,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1671,6 +1707,50 @@
         <v>44</v>
       </c>
     </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/tools/config.xlsx
+++ b/tools/config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22280" windowHeight="12660" activeTab="1"/>
+    <workbookView windowWidth="27760" windowHeight="12660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="loading-language" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -289,6 +289,33 @@
   <si>
     <t>暂停</t>
   </si>
+  <si>
+    <t>ui_score</t>
+  </si>
+  <si>
+    <t>Score:</t>
+  </si>
+  <si>
+    <t>分数:</t>
+  </si>
+  <si>
+    <t>ui_moves</t>
+  </si>
+  <si>
+    <t>Moves:</t>
+  </si>
+  <si>
+    <t>步数:</t>
+  </si>
+  <si>
+    <t>ui_total_time</t>
+  </si>
+  <si>
+    <t>Time:</t>
+  </si>
+  <si>
+    <t>时间:</t>
+  </si>
 </sst>
 </file>
 
@@ -478,6 +505,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF067D17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF2A8C7C"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -486,13 +520,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF080808"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF067D17"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1595,10 +1622,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1740,7 +1767,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" ht="14" customHeight="1" spans="1:3">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -1749,6 +1776,39 @@
       </c>
       <c r="C13" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
